--- a/public/excel-files/U5-Controles.xlsx
+++ b/public/excel-files/U5-Controles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petro\Desktop\progra-inf130.github.io\public\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D9B52D-3B6D-40E8-95E0-ACBFE2DB7741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED591B2B-F429-4EC3-90E7-B0BC075E0D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{64CD96CE-7CAA-4A9A-96D6-D05854D2C6A7}"/>
   </bookViews>
@@ -75,10 +75,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,9 +96,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,6 +154,18 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dx="26" noThreeD="1" sel="0" val="0"/>
 </file>
@@ -151,7 +175,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -159,7 +183,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,7 +475,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F444ECB4-9B66-9C99-FC9E-F44080267770}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -537,7 +561,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB59D7D8-9F6C-273A-210A-BF15D72D0CE4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -709,7 +733,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF818FD-9452-B4E7-9264-D962A95E5A36}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -795,7 +819,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E775E5-0032-104D-8A0F-F3645468EBF9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -923,6 +947,254 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Group Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-CL" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Otro grupo</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>594360</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Option Button 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-CL" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Opción 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>594360</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Option Button 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCFAD8F9-B4F1-828B-5EAB-079A2756CC82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-CL" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Opción 2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -1307,16 +1579,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="Drop Down 1">
+            <control shapeId="1025" r:id="rId4" name="Drop Down 1">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1338,7 +1611,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId4" name="List Box 2">
+            <control shapeId="1026" r:id="rId5" name="List Box 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1360,7 +1633,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId5" name="Spinner 3">
+            <control shapeId="1027" r:id="rId6" name="Spinner 3">
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
@@ -1382,7 +1655,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId6" name="Option Button 4">
+            <control shapeId="1028" r:id="rId7" name="Option Button 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1404,7 +1677,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId7" name="Option Button 5">
+            <control shapeId="1029" r:id="rId8" name="Option Button 5">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1426,7 +1699,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId8" name="Option Button 6">
+            <control shapeId="1030" r:id="rId9" name="Option Button 6">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1448,7 +1721,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId9" name="Check Box 7">
+            <control shapeId="1031" r:id="rId10" name="Check Box 7">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1470,7 +1743,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId10" name="Check Box 8">
+            <control shapeId="1032" r:id="rId11" name="Check Box 8">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1492,7 +1765,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId11" name="Check Box 9">
+            <control shapeId="1033" r:id="rId12" name="Check Box 9">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1514,7 +1787,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1034" r:id="rId12" name="Button 10">
+            <control shapeId="1034" r:id="rId13" name="Button 10">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
@@ -1534,6 +1807,72 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId14" name="Group Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1036" r:id="rId15" name="Option Button 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>160020</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>594360</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId16" name="Option Button 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>160020</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>594360</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
